--- a/MonthlyStatement/assets/FileImport/Import.xlsx
+++ b/MonthlyStatement/assets/FileImport/Import.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NDD\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97288573-84CB-48FD-B8A7-5EFCF00BB9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6043E2D8-0596-4754-9928-62D661036032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D863059B-1735-4B2D-BB81-759A3D9E481F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <r>
       <t xml:space="preserve">DANH SÁCH NHÂN VIÊN
@@ -99,13 +99,67 @@
     <t>Công nghệ thông tin</t>
   </si>
   <si>
-    <t>Nguyễn Đức Dũng</t>
-  </si>
-  <si>
-    <t>197pm21901@vanlanguni.vn</t>
-  </si>
-  <si>
-    <t>Kỹ thuật phần mềm</t>
+    <t>Lý Thị Huyền Châu</t>
+  </si>
+  <si>
+    <t>chau.lth@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>Nhân viên</t>
+  </si>
+  <si>
+    <t>Hệ thống thông tin</t>
+  </si>
+  <si>
+    <t>Phạm Ngọc Duy</t>
+  </si>
+  <si>
+    <t>Nguyễn Đắc Quỳnh Mi</t>
+  </si>
+  <si>
+    <t>Trần Quang Nhật</t>
+  </si>
+  <si>
+    <t>Trương Khắc Tùng</t>
+  </si>
+  <si>
+    <t>Trần Ngọc Việt</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Diễm Anh</t>
+  </si>
+  <si>
+    <t>Tống Hùng Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng Diên</t>
+  </si>
+  <si>
+    <t>duy.pn@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>mi.ndq@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>nhat.tq@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>tung.tk@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>viet.tn@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>anh.ntd@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>anh.th@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>dien.nh@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>Ban phòng khoa</t>
   </si>
 </sst>
 </file>
@@ -154,15 +208,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -181,6 +226,12 @@
     <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -205,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -317,12 +368,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,10 +407,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -361,10 +437,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -374,12 +447,87 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -389,6 +537,38 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="13"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -543,44 +723,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <sz val="13"/>
         <color rgb="FF000000"/>
@@ -594,49 +736,6 @@
           <color rgb="FF000000"/>
         </right>
         <top/>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
@@ -742,26 +841,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB9EF11F-0F98-4C6F-8F92-9C38C4F4C534}" name="Table4" displayName="Table4" ref="A2:F3" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB9EF11F-0F98-4C6F-8F92-9C38C4F4C534}" name="Table4" displayName="Table4" ref="A2:F3" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A2:F3" xr:uid="{AB9EF11F-0F98-4C6F-8F92-9C38C4F4C534}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{BD8030A3-5E0B-43AD-8C5A-13ACC4A69AFB}" name="STT" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{B7CC9FE9-4234-4AE1-87BF-F151D48C284C}" name="Họ và Tên" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{346C4246-93D0-4B3F-838F-C239E287AF28}" name="Email" dataDxfId="11" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" xr3:uid="{55494398-1BA4-4E7C-9A41-E5921E957345}" name="Khoa" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{D3840594-A024-4955-8E82-03847C02179D}" name="Bộ môn" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{A8AC31BB-0627-413E-BF2A-A9A97551D1AB}" name="Vai trò" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{BD8030A3-5E0B-43AD-8C5A-13ACC4A69AFB}" name="STT" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{B7CC9FE9-4234-4AE1-87BF-F151D48C284C}" name="Họ và Tên" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{346C4246-93D0-4B3F-838F-C239E287AF28}" name="Email" dataDxfId="2" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" xr3:uid="{55494398-1BA4-4E7C-9A41-E5921E957345}" name="Khoa" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{D3840594-A024-4955-8E82-03847C02179D}" name="Bộ môn" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{A8AC31BB-0627-413E-BF2A-A9A97551D1AB}" name="Vai trò" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Kiểu Bảng 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6A2D9191-4CE9-4E69-B805-9A4FDC6A0840}" name="Table3" displayName="Table3" ref="A2:B8" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A2:B8" xr:uid="{6A2D9191-4CE9-4E69-B805-9A4FDC6A0840}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6A2D9191-4CE9-4E69-B805-9A4FDC6A0840}" name="Table3" displayName="Table3" ref="A2:B9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A2:B9" xr:uid="{6A2D9191-4CE9-4E69-B805-9A4FDC6A0840}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D2BE2BAF-1CF2-404E-A970-E88DD633B934}" name="STT" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{DE96B05D-46C5-4461-B6A5-8698828DDFE5}" name="Tên chức danh" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D2BE2BAF-1CF2-404E-A970-E88DD633B934}" name="STT" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{DE96B05D-46C5-4461-B6A5-8698828DDFE5}" name="Tên chức danh" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="Kiểu Bảng 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1064,31 +1163,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55C3C43-D4B0-4F2A-9605-24C832C66003}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1114,19 +1213,179 @@
       <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
+      <c r="E3" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1135,33 +1394,30 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="C3:C11">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3" xr:uid="{473363A2-96C3-48E0-A81E-BBB7A510E3D1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F11" xr:uid="{9CFA6891-662F-4310-9681-9653AF9DFF21}">
       <formula1>Chucdanh</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{1426E074-0E74-4DBB-B987-C863EBEB902E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3489E4C-D150-454C-BA0D-593D5FC4CCEA}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,10 +1427,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1197,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1230,6 +1486,14 @@
       </c>
       <c r="B8" s="9" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1245,15 +1509,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x010100FFEEB7CE87815E43960D07200F9F436B" ma:contentTypeVersion="4" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="95040107d95985d946c9621c0cf5e169">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="094f4d46-5677-48c4-9c4e-de24b796b4d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8ab1822bcafc1fd34adf2811fb5301bc" ns2:_="">
     <xsd:import namespace="094f4d46-5677-48c4-9c4e-de24b796b4d3"/>
@@ -1397,15 +1652,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704E9732-CDD5-43E7-B34A-517BCD8EC75D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD549BC-75E3-4A8E-AFE7-19B278AE57ED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1421,4 +1677,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704E9732-CDD5-43E7-B34A-517BCD8EC75D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>